--- a/biology/Botanique/Arabis_alpina/Arabis_alpina.xlsx
+++ b/biology/Botanique/Arabis_alpina/Arabis_alpina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arabis alpina est une espèce de plantes à fleurs de la famille des Brassicaceae. C'est l'espèce des sous-espèce de l'arabette des Alpes et de l'arabette du Caucase.
 C'est une plante herbacée originaire d'Europe, du nord de l'Afrique, d'Asie et d'Amérique du Nord.
@@ -512,10 +524,12 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Arabis alpina | s. str[1]. subsp. alpina - l'arabette des Alpes à proprement parler.
-Arabis alpina subsp. caucasica  (Willd. ex Schltr.) Briq. - l'arabette du Caucase[1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Arabis alpina | s. str. subsp. alpina - l'arabette des Alpes à proprement parler.
+Arabis alpina subsp. caucasica  (Willd. ex Schltr.) Briq. - l'arabette du Caucase</t>
         </is>
       </c>
     </row>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve en particulier sur les éboulis calcaires (roche dure) à l'étage alpin. Elle fait partie de l'association végétale Thlaspion rotundifolii 3.3.1.2. Elle pousse aussi sur les éboulis calcaires humides parmi le Petasition paradoxi 3.3.1.4. de l'étage alpin aux basses altitudes le long des torrents[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve en particulier sur les éboulis calcaires (roche dure) à l'étage alpin. Elle fait partie de l'association végétale Thlaspion rotundifolii 3.3.1.2. Elle pousse aussi sur les éboulis calcaires humides parmi le Petasition paradoxi 3.3.1.4. de l'étage alpin aux basses altitudes le long des torrents.
 </t>
         </is>
       </c>
